--- a/linreg/rifdid_coefs-sltt_blk1.xlsx
+++ b/linreg/rifdid_coefs-sltt_blk1.xlsx
@@ -258,16 +258,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.023192719209027317</v>
+        <v>-0.023192719209056748</v>
       </c>
       <c r="C2">
-        <v>0.029378112415135094</v>
+        <v>0.029378112415144046</v>
       </c>
       <c r="D2">
-        <v>-0.080773469882492149</v>
+        <v>-0.080773469882539112</v>
       </c>
       <c r="E2">
-        <v>0.034388031464437509</v>
+        <v>0.034388031464425622</v>
       </c>
     </row>
     <row r="3">
@@ -275,16 +275,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.054544616497283718</v>
+        <v>-0.054544616497274538</v>
       </c>
       <c r="C3">
-        <v>0.020639960278287781</v>
+        <v>0.020639960278286171</v>
       </c>
       <c r="D3">
-        <v>-0.094998567482237339</v>
+        <v>-0.094998567482224988</v>
       </c>
       <c r="E3">
-        <v>-0.014090665512330104</v>
+        <v>-0.014090665512324081</v>
       </c>
     </row>
     <row r="4">
@@ -292,16 +292,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.035211714476647143</v>
+        <v>-0.035211714476633203</v>
       </c>
       <c r="C4">
-        <v>0.032889177477943364</v>
+        <v>0.032889177477943399</v>
       </c>
       <c r="D4">
-        <v>-0.099674342468104346</v>
+        <v>-0.099674342468090482</v>
       </c>
       <c r="E4">
-        <v>0.029250913514810059</v>
+        <v>0.029250913514824069</v>
       </c>
     </row>
     <row r="5">
@@ -309,16 +309,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>-0.056855162388842244</v>
+        <v>-0.056855162388846352</v>
       </c>
       <c r="C5">
-        <v>0.021301484973102316</v>
+        <v>0.021301484973095981</v>
       </c>
       <c r="D5">
-        <v>-0.098605780041109425</v>
+        <v>-0.098605780041101126</v>
       </c>
       <c r="E5">
-        <v>-0.015104544736575055</v>
+        <v>-0.015104544736591577</v>
       </c>
     </row>
     <row r="6">
@@ -326,16 +326,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.16877469162658817</v>
+        <v>-0.168774691626599</v>
       </c>
       <c r="C6">
-        <v>0.078164096624440502</v>
+        <v>0.078164096624444609</v>
       </c>
       <c r="D6">
-        <v>-0.32198197873195805</v>
+        <v>-0.32198197873197693</v>
       </c>
       <c r="E6">
-        <v>-0.015567404521218298</v>
+        <v>-0.015567404521221073</v>
       </c>
     </row>
     <row r="7">
@@ -343,16 +343,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.09096922460998863</v>
+        <v>-0.090969224609988866</v>
       </c>
       <c r="C7">
-        <v>0.076176436171391443</v>
+        <v>0.076176436171389347</v>
       </c>
       <c r="D7">
-        <v>-0.24027963932902444</v>
+        <v>-0.24027963932902058</v>
       </c>
       <c r="E7">
-        <v>0.058341190109047175</v>
+        <v>0.058341190109042831</v>
       </c>
     </row>
     <row r="8">
@@ -360,16 +360,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.08878271158659945</v>
+        <v>-0.088782711586620891</v>
       </c>
       <c r="C8">
-        <v>0.028192960768221996</v>
+        <v>0.028192960768213982</v>
       </c>
       <c r="D8">
-        <v>-0.14404057913786639</v>
+        <v>-0.14404057913787213</v>
       </c>
       <c r="E8">
-        <v>-0.033524844035332506</v>
+        <v>-0.033524844035369657</v>
       </c>
     </row>
     <row r="9">
@@ -377,16 +377,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.065709642207643887</v>
+        <v>-0.065709642207636074</v>
       </c>
       <c r="C9">
-        <v>0.020783131720988581</v>
+        <v>0.020783131720987412</v>
       </c>
       <c r="D9">
-        <v>-0.10644420664569393</v>
+        <v>-0.10644420664568383</v>
       </c>
       <c r="E9">
-        <v>-0.024975077769593852</v>
+        <v>-0.024975077769588329</v>
       </c>
     </row>
     <row r="10">
@@ -394,16 +394,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.06752569141394818</v>
+        <v>-0.067525691413952801</v>
       </c>
       <c r="C10">
-        <v>0.030723128906161412</v>
+        <v>0.030723128906159223</v>
       </c>
       <c r="D10">
-        <v>-0.12774287473328347</v>
+        <v>-0.12774287473328377</v>
       </c>
       <c r="E10">
-        <v>-0.0073085080946128991</v>
+        <v>-0.0073085080946218156</v>
       </c>
     </row>
     <row r="11">
@@ -411,16 +411,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.046235178785048438</v>
+        <v>-0.04623517878507169</v>
       </c>
       <c r="C11">
-        <v>0.021201473442671048</v>
+        <v>0.021201473442672474</v>
       </c>
       <c r="D11">
-        <v>-0.087789775212826993</v>
+        <v>-0.087789775212853027</v>
       </c>
       <c r="E11">
-        <v>-0.0046805823572698899</v>
+        <v>-0.0046805823572903527</v>
       </c>
     </row>
     <row r="12">
@@ -428,16 +428,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.050119502152651013</v>
+        <v>-0.050119502152659909</v>
       </c>
       <c r="C12">
-        <v>0.063381024508483041</v>
+        <v>0.063381024508486053</v>
       </c>
       <c r="D12">
-        <v>-0.17435089787337338</v>
+        <v>-0.17435089787338817</v>
       </c>
       <c r="E12">
-        <v>0.074111893568071352</v>
+        <v>0.074111893568068354</v>
       </c>
     </row>
     <row r="13">
@@ -445,16 +445,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.066493075802380883</v>
+        <v>-0.066493075802393525</v>
       </c>
       <c r="C13">
-        <v>0.065248400190931116</v>
+        <v>0.065248400190924788</v>
       </c>
       <c r="D13">
-        <v>-0.19438388012331487</v>
+        <v>-0.19438388012331509</v>
       </c>
       <c r="E13">
-        <v>0.061397728518553088</v>
+        <v>0.061397728518528039</v>
       </c>
     </row>
     <row r="14">
@@ -462,16 +462,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.092877654145923444</v>
+        <v>-0.092877654145935545</v>
       </c>
       <c r="C14">
-        <v>0.028262450642963104</v>
+        <v>0.028262450642963347</v>
       </c>
       <c r="D14">
-        <v>-0.14827172102460995</v>
+        <v>-0.14827172102462255</v>
       </c>
       <c r="E14">
-        <v>-0.037483587267236926</v>
+        <v>-0.037483587267248555</v>
       </c>
     </row>
     <row r="15">
@@ -479,16 +479,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.080982020310522165</v>
+        <v>-0.080982020310512465</v>
       </c>
       <c r="C15">
-        <v>0.021881812279761288</v>
+        <v>0.021881812279762006</v>
       </c>
       <c r="D15">
-        <v>-0.12386997888661555</v>
+        <v>-0.12386997888660725</v>
       </c>
       <c r="E15">
-        <v>-0.03809406173442878</v>
+        <v>-0.038094061734417671</v>
       </c>
     </row>
     <row r="16">
@@ -496,16 +496,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.073773652300102466</v>
+        <v>-0.073773652300090628</v>
       </c>
       <c r="C16">
-        <v>0.030333634103847412</v>
+        <v>0.03033363410384466</v>
       </c>
       <c r="D16">
-        <v>-0.13322742770013019</v>
+        <v>-0.13322742770011298</v>
       </c>
       <c r="E16">
-        <v>-0.014319876900074739</v>
+        <v>-0.014319876900068293</v>
       </c>
     </row>
     <row r="17">
@@ -513,16 +513,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>-0.09006925410927509</v>
+        <v>-0.09006925410928257</v>
       </c>
       <c r="C17">
-        <v>0.022154684117890594</v>
+        <v>0.022154684117895534</v>
       </c>
       <c r="D17">
-        <v>-0.13349213035385529</v>
+        <v>-0.13349213035387245</v>
       </c>
       <c r="E17">
-        <v>-0.046646377864694895</v>
+        <v>-0.046646377864692688</v>
       </c>
     </row>
     <row r="18">
@@ -530,16 +530,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.053653341536909489</v>
+        <v>-0.053653341536898956</v>
       </c>
       <c r="C18">
-        <v>0.059130590251496161</v>
+        <v>0.059130590251505688</v>
       </c>
       <c r="D18">
-        <v>-0.16955357845640454</v>
+        <v>-0.1695535784564127</v>
       </c>
       <c r="E18">
-        <v>0.062246895382585564</v>
+        <v>0.062246895382614777</v>
       </c>
     </row>
     <row r="19">
@@ -547,16 +547,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.0760730741698223</v>
+        <v>-0.07607307416985748</v>
       </c>
       <c r="C19">
-        <v>0.05694818079744994</v>
+        <v>0.056948180797452813</v>
       </c>
       <c r="D19">
-        <v>-0.18769494728069935</v>
+        <v>-0.18769494728074018</v>
       </c>
       <c r="E19">
-        <v>0.035548798941054768</v>
+        <v>0.035548798941025223</v>
       </c>
     </row>
     <row r="20">
@@ -564,16 +564,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.057113256107159546</v>
+        <v>-0.05711325610716339</v>
       </c>
       <c r="C20">
-        <v>0.026801740869603085</v>
+        <v>0.026801740869607873</v>
       </c>
       <c r="D20">
-        <v>-0.10964434921552291</v>
+        <v>-0.10964434921553615</v>
       </c>
       <c r="E20">
-        <v>-0.0045821629987961784</v>
+        <v>-0.0045821629987906343</v>
       </c>
     </row>
     <row r="21">
@@ -581,16 +581,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.063755644826008109</v>
+        <v>-0.063755644826005209</v>
       </c>
       <c r="C21">
-        <v>0.023139251811831119</v>
+        <v>0.023139251811830571</v>
       </c>
       <c r="D21">
-        <v>-0.10910816227290548</v>
+        <v>-0.1091081622729015</v>
       </c>
       <c r="E21">
-        <v>-0.018403127379110741</v>
+        <v>-0.018403127379108916</v>
       </c>
     </row>
     <row r="22">
@@ -598,16 +598,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.078860872125608536</v>
+        <v>-0.078860872125601722</v>
       </c>
       <c r="C22">
-        <v>0.030103854733575859</v>
+        <v>0.03010385473357655</v>
       </c>
       <c r="D22">
-        <v>-0.13786428107679879</v>
+        <v>-0.13786428107679333</v>
       </c>
       <c r="E22">
-        <v>-0.01985746317441827</v>
+        <v>-0.019857463174410103</v>
       </c>
     </row>
     <row r="23">
@@ -615,16 +615,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.089422908783114263</v>
+        <v>-0.089422908783119939</v>
       </c>
       <c r="C23">
-        <v>0.023758923967668568</v>
+        <v>0.023758923967667371</v>
       </c>
       <c r="D23">
-        <v>-0.13599007307499186</v>
+        <v>-0.13599007307499519</v>
       </c>
       <c r="E23">
-        <v>-0.042855744491236671</v>
+        <v>-0.042855744491244692</v>
       </c>
     </row>
     <row r="24">
@@ -632,16 +632,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.086428442505205746</v>
+        <v>-0.086428442505153386</v>
       </c>
       <c r="C24">
-        <v>0.053816425277274454</v>
+        <v>0.053816425277274024</v>
       </c>
       <c r="D24">
-        <v>-0.19191253142208564</v>
+        <v>-0.19191253142203241</v>
       </c>
       <c r="E24">
-        <v>0.019055646411674135</v>
+        <v>0.019055646411725649</v>
       </c>
     </row>
     <row r="25">
@@ -649,16 +649,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0084201419541755657</v>
+        <v>-0.0084201419541749967</v>
       </c>
       <c r="C25">
-        <v>0.051476910967213928</v>
+        <v>0.051476910967223351</v>
       </c>
       <c r="D25">
-        <v>-0.10931799582169656</v>
+        <v>-0.10931799582171446</v>
       </c>
       <c r="E25">
-        <v>0.092477711913345431</v>
+        <v>0.092477711913364471</v>
       </c>
     </row>
     <row r="26">
@@ -666,16 +666,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.033378245548921853</v>
+        <v>-0.033378245548920195</v>
       </c>
       <c r="C26">
-        <v>0.028256363559148661</v>
+        <v>0.028256363559158202</v>
       </c>
       <c r="D26">
-        <v>-0.088760381815780928</v>
+        <v>-0.08876038181579797</v>
       </c>
       <c r="E26">
-        <v>0.022003890717937222</v>
+        <v>0.02200389071795758</v>
       </c>
     </row>
     <row r="27">
@@ -683,16 +683,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>-0.079066256812787616</v>
+        <v>-0.079066256812786534</v>
       </c>
       <c r="C27">
-        <v>0.022138496656802457</v>
+        <v>0.022138496656800531</v>
       </c>
       <c r="D27">
-        <v>-0.12245731215202497</v>
+        <v>-0.12245731215202012</v>
       </c>
       <c r="E27">
-        <v>-0.035675201473550258</v>
+        <v>-0.03567520147355295</v>
       </c>
     </row>
     <row r="28">
@@ -700,16 +700,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.066859092790359759</v>
+        <v>-0.066859092790364477</v>
       </c>
       <c r="C28">
-        <v>0.029901292522914968</v>
+        <v>0.029901292522915457</v>
       </c>
       <c r="D28">
-        <v>-0.12546548079325426</v>
+        <v>-0.12546548079325995</v>
       </c>
       <c r="E28">
-        <v>-0.0082527047874652454</v>
+        <v>-0.0082527047874689993</v>
       </c>
     </row>
     <row r="29">
@@ -717,16 +717,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.049969506833128174</v>
+        <v>-0.049969506833136758</v>
       </c>
       <c r="C29">
-        <v>0.023876386734565307</v>
+        <v>0.023876386734562591</v>
       </c>
       <c r="D29">
-        <v>-0.09676689653301257</v>
+        <v>-0.096766896533015817</v>
       </c>
       <c r="E29">
-        <v>-0.0031721171332437861</v>
+        <v>-0.0031721171332576917</v>
       </c>
     </row>
     <row r="30">
@@ -734,16 +734,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.032729036272003534</v>
+        <v>-0.032729036271953359</v>
       </c>
       <c r="C30">
-        <v>0.050284188302097098</v>
+        <v>0.050284188302097507</v>
       </c>
       <c r="D30">
-        <v>-0.13128968504499788</v>
+        <v>-0.13128968504494848</v>
       </c>
       <c r="E30">
-        <v>0.065831612500990802</v>
+        <v>0.065831612501041775</v>
       </c>
     </row>
     <row r="31">
@@ -751,16 +751,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0075676882941011414</v>
+        <v>0.0075676882940954584</v>
       </c>
       <c r="C31">
-        <v>0.048089862761378645</v>
+        <v>0.048089862761369763</v>
       </c>
       <c r="D31">
-        <v>-0.08669134656712249</v>
+        <v>-0.08669134656711075</v>
       </c>
       <c r="E31">
-        <v>0.10182672315532476</v>
+        <v>0.10182672315530167</v>
       </c>
     </row>
     <row r="32">
@@ -768,16 +768,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.011070392440069148</v>
+        <v>-0.011070392440075285</v>
       </c>
       <c r="C32">
-        <v>0.028998873104972692</v>
+        <v>0.028998873104969312</v>
       </c>
       <c r="D32">
-        <v>-0.067907838579346541</v>
+        <v>-0.067907838579346042</v>
       </c>
       <c r="E32">
-        <v>0.045767053699208242</v>
+        <v>0.045767053699195474</v>
       </c>
     </row>
     <row r="33">
@@ -785,16 +785,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.065667492049266571</v>
+        <v>-0.065667492049266613</v>
       </c>
       <c r="C33">
-        <v>0.023802057075165899</v>
+        <v>0.023802057075163176</v>
       </c>
       <c r="D33">
-        <v>-0.11231909589332723</v>
+        <v>-0.11231909589332194</v>
       </c>
       <c r="E33">
-        <v>-0.019015888205205909</v>
+        <v>-0.019015888205211287</v>
       </c>
     </row>
     <row r="34">
@@ -802,16 +802,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.026186896187000895</v>
+        <v>-0.026186896187000663</v>
       </c>
       <c r="C34">
-        <v>0.031217787478728772</v>
+        <v>0.031217787478728474</v>
       </c>
       <c r="D34">
-        <v>-0.087373607904167941</v>
+        <v>-0.087373607904167122</v>
       </c>
       <c r="E34">
-        <v>0.034999815530166151</v>
+        <v>0.03499981553016579</v>
       </c>
     </row>
     <row r="35">
@@ -819,16 +819,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.091472317918208507</v>
+        <v>-0.09147231791820612</v>
       </c>
       <c r="C35">
-        <v>0.0248987844751705</v>
+        <v>0.024898784475166091</v>
       </c>
       <c r="D35">
-        <v>-0.14027359313172957</v>
+        <v>-0.14027359313171855</v>
       </c>
       <c r="E35">
-        <v>-0.042671042704687433</v>
+        <v>-0.042671042704693685</v>
       </c>
     </row>
     <row r="36">
@@ -836,16 +836,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.045892182456404897</v>
+        <v>-0.045892182456350968</v>
       </c>
       <c r="C36">
-        <v>0.047576628337251826</v>
+        <v>0.047576628337241515</v>
       </c>
       <c r="D36">
-        <v>-0.13914581771804049</v>
+        <v>-0.13914581771796636</v>
       </c>
       <c r="E36">
-        <v>0.047361452805230707</v>
+        <v>0.04736145280526443</v>
       </c>
     </row>
     <row r="37">
@@ -853,16 +853,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>-0.061434833936963411</v>
+        <v>-0.061434833936969371</v>
       </c>
       <c r="C37">
-        <v>0.044354560894838475</v>
+        <v>0.044354560894841515</v>
       </c>
       <c r="D37">
-        <v>-0.14837245158802675</v>
+        <v>-0.14837245158803869</v>
       </c>
       <c r="E37">
-        <v>0.025502783714099926</v>
+        <v>0.025502783714099933</v>
       </c>
     </row>
     <row r="38">
@@ -870,16 +870,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0041252348089720545</v>
+        <v>-0.0041252348089713745</v>
       </c>
       <c r="C38">
-        <v>0.030330678025541805</v>
+        <v>0.030330678025544906</v>
       </c>
       <c r="D38">
-        <v>-0.063573002741336343</v>
+        <v>-0.063573002741341728</v>
       </c>
       <c r="E38">
-        <v>0.055322533123392227</v>
+        <v>0.055322533123398986</v>
       </c>
     </row>
     <row r="39">
@@ -887,16 +887,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.040191392051309296</v>
+        <v>-0.040191392051310983</v>
       </c>
       <c r="C39">
-        <v>0.025823881815659311</v>
+        <v>0.025823881815657326</v>
       </c>
       <c r="D39">
-        <v>-0.090805736029038089</v>
+        <v>-0.090805736029035883</v>
       </c>
       <c r="E39">
-        <v>0.010422951926419496</v>
+        <v>0.010422951926413924</v>
       </c>
     </row>
     <row r="40">
@@ -904,16 +904,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.041277237602795953</v>
+        <v>-0.041277237602790298</v>
       </c>
       <c r="C40">
-        <v>0.03441610555036366</v>
+        <v>0.034416105550370772</v>
       </c>
       <c r="D40">
-        <v>-0.1087326371942165</v>
+        <v>-0.10873263719422477</v>
       </c>
       <c r="E40">
-        <v>0.026178161988624583</v>
+        <v>0.026178161988644172</v>
       </c>
     </row>
     <row r="41">
@@ -921,16 +921,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.075270588761672128</v>
+        <v>-0.075270588761676943</v>
       </c>
       <c r="C41">
-        <v>0.027426239191362622</v>
+        <v>0.027426239191372308</v>
       </c>
       <c r="D41">
-        <v>-0.12902564046647547</v>
+        <v>-0.12902564046649928</v>
       </c>
       <c r="E41">
-        <v>-0.021515537056868782</v>
+        <v>-0.021515537056854613</v>
       </c>
     </row>
     <row r="42">
@@ -938,16 +938,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.12389656965512881</v>
+        <v>-0.12389656965506884</v>
       </c>
       <c r="C42">
-        <v>0.045101967578430775</v>
+        <v>0.045101967578428909</v>
       </c>
       <c r="D42">
-        <v>-0.212299690707066</v>
+        <v>-0.21229969070700239</v>
       </c>
       <c r="E42">
-        <v>-0.035493448603191632</v>
+        <v>-0.035493448603135316</v>
       </c>
     </row>
     <row r="43">
@@ -955,16 +955,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.015108854272129029</v>
+        <v>-0.015108854272156309</v>
       </c>
       <c r="C43">
-        <v>0.048494553012880214</v>
+        <v>0.048494553012880269</v>
       </c>
       <c r="D43">
-        <v>-0.11016110646303318</v>
+        <v>-0.11016110646306057</v>
       </c>
       <c r="E43">
-        <v>0.079943397918775111</v>
+        <v>0.079943397918747938</v>
       </c>
     </row>
     <row r="44">
@@ -972,16 +972,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.0015470619420107942</v>
+        <v>-0.0015470619420212314</v>
       </c>
       <c r="C44">
-        <v>0.031744505520228929</v>
+        <v>0.031744505520220234</v>
       </c>
       <c r="D44">
-        <v>-0.063765914936495263</v>
+        <v>-0.063765914936488657</v>
       </c>
       <c r="E44">
-        <v>0.060671791052473681</v>
+        <v>0.060671791052446196</v>
       </c>
     </row>
     <row r="45">
@@ -989,16 +989,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>-0.065732605436062588</v>
+        <v>-0.065732605436058508</v>
       </c>
       <c r="C45">
-        <v>0.028263171758508145</v>
+        <v>0.02826317175850903</v>
       </c>
       <c r="D45">
-        <v>-0.12112791383695951</v>
+        <v>-0.12112791383695716</v>
       </c>
       <c r="E45">
-        <v>-0.010337297035165671</v>
+        <v>-0.010337297035159856</v>
       </c>
     </row>
     <row r="46">
@@ -1006,16 +1006,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.011550661333834446</v>
+        <v>-0.011550661333812244</v>
       </c>
       <c r="C46">
-        <v>0.038392457107784723</v>
+        <v>0.038392457107786111</v>
       </c>
       <c r="D46">
-        <v>-0.086799690649841041</v>
+        <v>-0.086799690649821556</v>
       </c>
       <c r="E46">
-        <v>0.063698367982172141</v>
+        <v>0.063698367982197066</v>
       </c>
     </row>
     <row r="47">
@@ -1023,16 +1023,16 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.074801584024471804</v>
+        <v>-0.074801584024509649</v>
       </c>
       <c r="C47">
-        <v>0.03141659089503198</v>
+        <v>0.031416590895038524</v>
       </c>
       <c r="D47">
-        <v>-0.13637767020120703</v>
+        <v>-0.13637767020125771</v>
       </c>
       <c r="E47">
-        <v>-0.013225497847736571</v>
+        <v>-0.013225497847761586</v>
       </c>
     </row>
     <row r="48">
@@ -1040,16 +1040,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.21964025827747555</v>
+        <v>-0.2196402582774549</v>
       </c>
       <c r="C48">
-        <v>0.04834495763883969</v>
+        <v>0.048344957638834583</v>
       </c>
       <c r="D48">
-        <v>-0.31439987458390495</v>
+        <v>-0.31439987458387431</v>
       </c>
       <c r="E48">
-        <v>-0.12488064197104612</v>
+        <v>-0.12488064197103547</v>
       </c>
     </row>
     <row r="49">
@@ -1057,16 +1057,16 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.027810172807881586</v>
+        <v>-0.027810172807912356</v>
       </c>
       <c r="C49">
-        <v>0.051777093308921295</v>
+        <v>0.051777093308922252</v>
       </c>
       <c r="D49">
-        <v>-0.12929640219130117</v>
+        <v>-0.12929640219133381</v>
       </c>
       <c r="E49">
-        <v>0.073676056575537996</v>
+        <v>0.073676056575509102</v>
       </c>
     </row>
     <row r="50">
@@ -1074,16 +1074,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.060178963726208443</v>
+        <v>-0.060178963726223812</v>
       </c>
       <c r="C50">
-        <v>0.043147713131412586</v>
+        <v>0.043147713131426041</v>
       </c>
       <c r="D50">
-        <v>-0.14474796791689609</v>
+        <v>-0.14474796791693781</v>
       </c>
       <c r="E50">
-        <v>0.024390040464479193</v>
+        <v>0.024390040464490191</v>
       </c>
     </row>
     <row r="51">
@@ -1091,16 +1091,16 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0811442733806301</v>
+        <v>-0.081144273380638815</v>
       </c>
       <c r="C51">
-        <v>0.034360058631647504</v>
+        <v>0.034360058631641863</v>
       </c>
       <c r="D51">
-        <v>-0.14848937041490162</v>
+        <v>-0.14848937041489929</v>
       </c>
       <c r="E51">
-        <v>-0.013799176346358577</v>
+        <v>-0.013799176346378353</v>
       </c>
     </row>
     <row r="52">
@@ -1108,16 +1108,16 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.0043485786330694567</v>
+        <v>0.0043485786331142152</v>
       </c>
       <c r="C52">
-        <v>0.055416537261463075</v>
+        <v>0.055416537261470042</v>
       </c>
       <c r="D52">
-        <v>-0.10426756503474127</v>
+        <v>-0.10426756503471016</v>
       </c>
       <c r="E52">
-        <v>0.11296472230088017</v>
+        <v>0.1129647223009386</v>
       </c>
     </row>
     <row r="53">
@@ -1125,16 +1125,16 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.12036658445380266</v>
+        <v>-0.12036658445377836</v>
       </c>
       <c r="C53">
-        <v>0.040711400652520158</v>
+        <v>0.040711400652516237</v>
       </c>
       <c r="D53">
-        <v>-0.20016036995175729</v>
+        <v>-0.20016036995172531</v>
       </c>
       <c r="E53">
-        <v>-0.040572798955848033</v>
+        <v>-0.040572798955831421</v>
       </c>
     </row>
     <row r="54">
@@ -1142,16 +1142,16 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.096887425221070606</v>
+        <v>-0.096887425221036244</v>
       </c>
       <c r="C54">
-        <v>0.06589248130011513</v>
+        <v>0.065892481300109051</v>
       </c>
       <c r="D54">
-        <v>-0.22604145803919398</v>
+        <v>-0.22604145803914771</v>
       </c>
       <c r="E54">
-        <v>0.032266607597052771</v>
+        <v>0.032266607597075225</v>
       </c>
     </row>
     <row r="55">
@@ -1159,16 +1159,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.039895802690568451</v>
+        <v>0.039895802690546905</v>
       </c>
       <c r="C55">
-        <v>0.067049749959437341</v>
+        <v>0.067049749959421381</v>
       </c>
       <c r="D55">
-        <v>-0.091525755948991872</v>
+        <v>-0.091525755948982129</v>
       </c>
       <c r="E55">
-        <v>0.17131736133012876</v>
+        <v>0.17131736133007594</v>
       </c>
     </row>
   </sheetData>

--- a/linreg/rifdid_coefs-sltt_blk1.xlsx
+++ b/linreg/rifdid_coefs-sltt_blk1.xlsx
@@ -258,16 +258,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.023192719209056748</v>
+        <v>-0.024165800849694469</v>
       </c>
       <c r="C2">
-        <v>0.029378112415144046</v>
+        <v>0.029632870758003003</v>
       </c>
       <c r="D2">
-        <v>-0.080773469882539112</v>
+        <v>-0.082245876597752135</v>
       </c>
       <c r="E2">
-        <v>0.034388031464425622</v>
+        <v>0.033914274898363198</v>
       </c>
     </row>
     <row r="3">
@@ -275,16 +275,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.054544616497274538</v>
+        <v>-0.055192335539609672</v>
       </c>
       <c r="C3">
-        <v>0.020639960278286171</v>
+        <v>0.020704731466418179</v>
       </c>
       <c r="D3">
-        <v>-0.094998567482224988</v>
+        <v>-0.095773237565244806</v>
       </c>
       <c r="E3">
-        <v>-0.014090665512324081</v>
+        <v>-0.014611433513974537</v>
       </c>
     </row>
     <row r="4">
@@ -292,16 +292,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.035211714476633203</v>
+        <v>-0.036276293245246095</v>
       </c>
       <c r="C4">
-        <v>0.032889177477943399</v>
+        <v>0.033252678595952635</v>
       </c>
       <c r="D4">
-        <v>-0.099674342468090482</v>
+        <v>-0.10145138434833201</v>
       </c>
       <c r="E4">
-        <v>0.029250913514824069</v>
+        <v>0.02889879785783981</v>
       </c>
     </row>
     <row r="5">
@@ -309,16 +309,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>-0.056855162388846352</v>
+        <v>-0.058458558994010791</v>
       </c>
       <c r="C5">
-        <v>0.021301484973095981</v>
+        <v>0.021382202993288333</v>
       </c>
       <c r="D5">
-        <v>-0.098605780041101126</v>
+        <v>-0.10036738377375953</v>
       </c>
       <c r="E5">
-        <v>-0.015104544736591577</v>
+        <v>-0.016549734214262049</v>
       </c>
     </row>
     <row r="6">
@@ -326,16 +326,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.168774691626599</v>
+        <v>-0.16496113917138841</v>
       </c>
       <c r="C6">
-        <v>0.078164096624444609</v>
+        <v>0.078389946216647549</v>
       </c>
       <c r="D6">
-        <v>-0.32198197873197693</v>
+        <v>-0.31861112338449593</v>
       </c>
       <c r="E6">
-        <v>-0.015567404521221073</v>
+        <v>-0.011311154958280889</v>
       </c>
     </row>
     <row r="7">
@@ -343,16 +343,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.090969224609988866</v>
+        <v>-0.091203368375932736</v>
       </c>
       <c r="C7">
-        <v>0.076176436171389347</v>
+        <v>0.076448965830950982</v>
       </c>
       <c r="D7">
-        <v>-0.24027963932902058</v>
+        <v>-0.24104796697939254</v>
       </c>
       <c r="E7">
-        <v>0.058341190109042831</v>
+        <v>0.058641230227527069</v>
       </c>
     </row>
     <row r="8">
@@ -360,16 +360,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.088782711586620891</v>
+        <v>-0.091973042816274705</v>
       </c>
       <c r="C8">
-        <v>0.028192960768213982</v>
+        <v>0.028444917217125717</v>
       </c>
       <c r="D8">
-        <v>-0.14404057913787213</v>
+        <v>-0.14772474369296787</v>
       </c>
       <c r="E8">
-        <v>-0.033524844035369657</v>
+        <v>-0.036221341939581542</v>
       </c>
     </row>
     <row r="9">
@@ -377,16 +377,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.065709642207636074</v>
+        <v>-0.067377257269346597</v>
       </c>
       <c r="C9">
-        <v>0.020783131720987412</v>
+        <v>0.020838871778463799</v>
       </c>
       <c r="D9">
-        <v>-0.10644420664568383</v>
+        <v>-0.10822107189878152</v>
       </c>
       <c r="E9">
-        <v>-0.024975077769588329</v>
+        <v>-0.02653344263991167</v>
       </c>
     </row>
     <row r="10">
@@ -394,16 +394,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.067525691413952801</v>
+        <v>-0.068309421461311415</v>
       </c>
       <c r="C10">
-        <v>0.030723128906159223</v>
+        <v>0.031068198867234761</v>
       </c>
       <c r="D10">
-        <v>-0.12774287473328377</v>
+        <v>-0.12920294273773797</v>
       </c>
       <c r="E10">
-        <v>-0.0073085080946218156</v>
+        <v>-0.0074159001848848535</v>
       </c>
     </row>
     <row r="11">
@@ -411,16 +411,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.04623517878507169</v>
+        <v>-0.047428053708008545</v>
       </c>
       <c r="C11">
-        <v>0.021201473442672474</v>
+        <v>0.021246081758022659</v>
       </c>
       <c r="D11">
-        <v>-0.087789775212853027</v>
+        <v>-0.089070082732458228</v>
       </c>
       <c r="E11">
-        <v>-0.0046805823572903527</v>
+        <v>-0.0057860246835588561</v>
       </c>
     </row>
     <row r="12">
@@ -428,16 +428,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.050119502152659909</v>
+        <v>-0.048294304287049818</v>
       </c>
       <c r="C12">
-        <v>0.063381024508486053</v>
+        <v>0.063586904552479603</v>
       </c>
       <c r="D12">
-        <v>-0.17435089787338817</v>
+        <v>-0.17292925241734972</v>
       </c>
       <c r="E12">
-        <v>0.074111893568068354</v>
+        <v>0.076340643843250067</v>
       </c>
     </row>
     <row r="13">
@@ -445,16 +445,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.066493075802393525</v>
+        <v>-0.065555014597344655</v>
       </c>
       <c r="C13">
-        <v>0.065248400190924788</v>
+        <v>0.065442602229183577</v>
       </c>
       <c r="D13">
-        <v>-0.19438388012331509</v>
+        <v>-0.1938264745969745</v>
       </c>
       <c r="E13">
-        <v>0.061397728518528039</v>
+        <v>0.062716445402285173</v>
       </c>
     </row>
     <row r="14">
@@ -462,16 +462,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.092877654145935545</v>
+        <v>-0.090683991416131385</v>
       </c>
       <c r="C14">
-        <v>0.028262450642963347</v>
+        <v>0.0285070110902177</v>
       </c>
       <c r="D14">
-        <v>-0.14827172102462255</v>
+        <v>-0.14655739554871644</v>
       </c>
       <c r="E14">
-        <v>-0.037483587267248555</v>
+        <v>-0.034810587283546322</v>
       </c>
     </row>
     <row r="15">
@@ -479,16 +479,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.080982020310512465</v>
+        <v>-0.08583652680776159</v>
       </c>
       <c r="C15">
-        <v>0.021881812279762006</v>
+        <v>0.021958608473189842</v>
       </c>
       <c r="D15">
-        <v>-0.12386997888660725</v>
+        <v>-0.12887500525966081</v>
       </c>
       <c r="E15">
-        <v>-0.038094061734417671</v>
+        <v>-0.042798048355862373</v>
       </c>
     </row>
     <row r="16">
@@ -496,16 +496,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.073773652300090628</v>
+        <v>-0.076665925150305986</v>
       </c>
       <c r="C16">
-        <v>0.03033363410384466</v>
+        <v>0.030668336120525771</v>
       </c>
       <c r="D16">
-        <v>-0.13322742770011298</v>
+        <v>-0.1367757173544929</v>
       </c>
       <c r="E16">
-        <v>-0.014319876900068293</v>
+        <v>-0.016556132946119059</v>
       </c>
     </row>
     <row r="17">
@@ -513,16 +513,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>-0.09006925410928257</v>
+        <v>-0.091535173026559197</v>
       </c>
       <c r="C17">
-        <v>0.022154684117895534</v>
+        <v>0.022202435298481038</v>
       </c>
       <c r="D17">
-        <v>-0.13349213035387245</v>
+        <v>-0.13505164188151386</v>
       </c>
       <c r="E17">
-        <v>-0.046646377864692688</v>
+        <v>-0.048018704171604525</v>
       </c>
     </row>
     <row r="18">
@@ -530,16 +530,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.053653341536898956</v>
+        <v>-0.054813609516926508</v>
       </c>
       <c r="C18">
-        <v>0.059130590251505688</v>
+        <v>0.059400022337002825</v>
       </c>
       <c r="D18">
-        <v>-0.1695535784564127</v>
+        <v>-0.17124196461637767</v>
       </c>
       <c r="E18">
-        <v>0.062246895382614777</v>
+        <v>0.061614745582524645</v>
       </c>
     </row>
     <row r="19">
@@ -547,16 +547,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.07607307416985748</v>
+        <v>-0.074180197219998592</v>
       </c>
       <c r="C19">
-        <v>0.056948180797452813</v>
+        <v>0.057165740935859223</v>
       </c>
       <c r="D19">
-        <v>-0.18769494728074018</v>
+        <v>-0.18622850828995935</v>
       </c>
       <c r="E19">
-        <v>0.035548798941025223</v>
+        <v>0.037868113849962151</v>
       </c>
     </row>
     <row r="20">
@@ -564,16 +564,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.05711325610716339</v>
+        <v>-0.056534260254491875</v>
       </c>
       <c r="C20">
-        <v>0.026801740869607873</v>
+        <v>0.027038488088423109</v>
       </c>
       <c r="D20">
-        <v>-0.10964434921553615</v>
+        <v>-0.10952937669505641</v>
       </c>
       <c r="E20">
-        <v>-0.0045821629987906343</v>
+        <v>-0.0035391438139273368</v>
       </c>
     </row>
     <row r="21">
@@ -581,16 +581,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.063755644826005209</v>
+        <v>-0.063977360105818462</v>
       </c>
       <c r="C21">
-        <v>0.023139251811830571</v>
+        <v>0.023191842396023128</v>
       </c>
       <c r="D21">
-        <v>-0.1091081622729015</v>
+        <v>-0.10943295491000452</v>
       </c>
       <c r="E21">
-        <v>-0.018403127379108916</v>
+        <v>-0.018521765301632402</v>
       </c>
     </row>
     <row r="22">
@@ -598,16 +598,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.078860872125601722</v>
+        <v>-0.076934699089306155</v>
       </c>
       <c r="C22">
-        <v>0.03010385473357655</v>
+        <v>0.030433326071131788</v>
       </c>
       <c r="D22">
-        <v>-0.13786428107679333</v>
+        <v>-0.13658387272000896</v>
       </c>
       <c r="E22">
-        <v>-0.019857463174410103</v>
+        <v>-0.017285525458603346</v>
       </c>
     </row>
     <row r="23">
@@ -615,16 +615,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.089422908783119939</v>
+        <v>-0.089190441910527413</v>
       </c>
       <c r="C23">
-        <v>0.023758923967667371</v>
+        <v>0.023814871762615489</v>
       </c>
       <c r="D23">
-        <v>-0.13599007307499519</v>
+        <v>-0.13586726413342548</v>
       </c>
       <c r="E23">
-        <v>-0.042855744491244692</v>
+        <v>-0.042513619687629331</v>
       </c>
     </row>
     <row r="24">
@@ -632,16 +632,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.086428442505153386</v>
+        <v>-0.084571481682084101</v>
       </c>
       <c r="C24">
-        <v>0.053816425277274024</v>
+        <v>0.053996312116468652</v>
       </c>
       <c r="D24">
-        <v>-0.19191253142203241</v>
+        <v>-0.19040817254205963</v>
       </c>
       <c r="E24">
-        <v>0.019055646411725649</v>
+        <v>0.021265209177891431</v>
       </c>
     </row>
     <row r="25">
@@ -649,16 +649,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0084201419541749967</v>
+        <v>-0.0075002915056783873</v>
       </c>
       <c r="C25">
-        <v>0.051476910967223351</v>
+        <v>0.051631828051538264</v>
       </c>
       <c r="D25">
-        <v>-0.10931799582171446</v>
+        <v>-0.10870179849079081</v>
       </c>
       <c r="E25">
-        <v>0.092477711913364471</v>
+        <v>0.093701215479434052</v>
       </c>
     </row>
     <row r="26">
@@ -666,16 +666,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.033378245548920195</v>
+        <v>-0.033422251396713842</v>
       </c>
       <c r="C26">
-        <v>0.028256363559158202</v>
+        <v>0.028499914542807574</v>
       </c>
       <c r="D26">
-        <v>-0.08876038181579797</v>
+        <v>-0.0892817463804184</v>
       </c>
       <c r="E26">
-        <v>0.02200389071795758</v>
+        <v>0.022437243586990716</v>
       </c>
     </row>
     <row r="27">
@@ -683,16 +683,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>-0.079066256812786534</v>
+        <v>-0.08043707111681013</v>
       </c>
       <c r="C27">
-        <v>0.022138496656800531</v>
+        <v>0.0221918194548834</v>
       </c>
       <c r="D27">
-        <v>-0.12245731215202012</v>
+        <v>-0.12393263890670721</v>
       </c>
       <c r="E27">
-        <v>-0.03567520147355295</v>
+        <v>-0.036941503326913053</v>
       </c>
     </row>
     <row r="28">
@@ -700,16 +700,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.066859092790364477</v>
+        <v>-0.066214931291278228</v>
       </c>
       <c r="C28">
-        <v>0.029901292522915457</v>
+        <v>0.030226887695567226</v>
       </c>
       <c r="D28">
-        <v>-0.12546548079325995</v>
+        <v>-0.1254594866926324</v>
       </c>
       <c r="E28">
-        <v>-0.0082527047874689993</v>
+        <v>-0.0069703758899240451</v>
       </c>
     </row>
     <row r="29">
@@ -717,16 +717,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.049969506833136758</v>
+        <v>-0.051427667624333727</v>
       </c>
       <c r="C29">
-        <v>0.023876386734562591</v>
+        <v>0.023930970726704831</v>
       </c>
       <c r="D29">
-        <v>-0.096766896533015817</v>
+        <v>-0.098332042225471677</v>
       </c>
       <c r="E29">
-        <v>-0.0031721171332576917</v>
+        <v>-0.0045232930231957694</v>
       </c>
     </row>
     <row r="30">
@@ -734,16 +734,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.032729036271953359</v>
+        <v>-0.031646205014856058</v>
       </c>
       <c r="C30">
-        <v>0.050284188302097507</v>
+        <v>0.050445132081166265</v>
       </c>
       <c r="D30">
-        <v>-0.13128968504494848</v>
+        <v>-0.13052232525708779</v>
       </c>
       <c r="E30">
-        <v>0.065831612501041775</v>
+        <v>0.067229915227375661</v>
       </c>
     </row>
     <row r="31">
@@ -751,16 +751,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0075676882940954584</v>
+        <v>0.0089069466228220307</v>
       </c>
       <c r="C31">
-        <v>0.048089862761369763</v>
+        <v>0.048220754392650944</v>
       </c>
       <c r="D31">
-        <v>-0.08669134656711075</v>
+        <v>-0.085608649602515671</v>
       </c>
       <c r="E31">
-        <v>0.10182672315530167</v>
+        <v>0.10342254284815973</v>
       </c>
     </row>
     <row r="32">
@@ -768,16 +768,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.011070392440075285</v>
+        <v>-0.011140014002463011</v>
       </c>
       <c r="C32">
-        <v>0.028998873104969312</v>
+        <v>0.029257755290679532</v>
       </c>
       <c r="D32">
-        <v>-0.067907838579346042</v>
+        <v>-0.068484867877002698</v>
       </c>
       <c r="E32">
-        <v>0.045767053699195474</v>
+        <v>0.046204839872076672</v>
       </c>
     </row>
     <row r="33">
@@ -785,16 +785,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.065667492049266613</v>
+        <v>-0.068275345005504223</v>
       </c>
       <c r="C33">
-        <v>0.023802057075163176</v>
+        <v>0.023835620312528165</v>
       </c>
       <c r="D33">
-        <v>-0.11231909589332194</v>
+        <v>-0.11499273297026963</v>
       </c>
       <c r="E33">
-        <v>-0.019015888205211287</v>
+        <v>-0.021557957040738818</v>
       </c>
     </row>
     <row r="34">
@@ -802,16 +802,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.026186896187000663</v>
+        <v>-0.026981971857268739</v>
       </c>
       <c r="C34">
-        <v>0.031217787478728474</v>
+        <v>0.031538377736644585</v>
       </c>
       <c r="D34">
-        <v>-0.087373607904167122</v>
+        <v>-0.088797041470323468</v>
       </c>
       <c r="E34">
-        <v>0.03499981553016579</v>
+        <v>0.034833097755785983</v>
       </c>
     </row>
     <row r="35">
@@ -819,16 +819,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.09147231791820612</v>
+        <v>-0.091429183760733293</v>
       </c>
       <c r="C35">
-        <v>0.024898784475166091</v>
+        <v>0.024977461195939955</v>
       </c>
       <c r="D35">
-        <v>-0.14027359313171855</v>
+        <v>-0.14038466533726654</v>
       </c>
       <c r="E35">
-        <v>-0.042671042704693685</v>
+        <v>-0.042473702184200046</v>
       </c>
     </row>
     <row r="36">
@@ -836,16 +836,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.045892182456350968</v>
+        <v>-0.044562667267545826</v>
       </c>
       <c r="C36">
-        <v>0.047576628337241515</v>
+        <v>0.047727491182842793</v>
       </c>
       <c r="D36">
-        <v>-0.13914581771796636</v>
+        <v>-0.13811201409969937</v>
       </c>
       <c r="E36">
-        <v>0.04736145280526443</v>
+        <v>0.048986679564607706</v>
       </c>
     </row>
     <row r="37">
@@ -853,16 +853,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>-0.061434833936969371</v>
+        <v>-0.06044951387661094</v>
       </c>
       <c r="C37">
-        <v>0.044354560894841515</v>
+        <v>0.044486897628408878</v>
       </c>
       <c r="D37">
-        <v>-0.14837245158803869</v>
+        <v>-0.14764652492555966</v>
       </c>
       <c r="E37">
-        <v>0.025502783714099933</v>
+        <v>0.026747497172337785</v>
       </c>
     </row>
     <row r="38">
@@ -870,16 +870,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0041252348089713745</v>
+        <v>-0.0031534632778607405</v>
       </c>
       <c r="C38">
-        <v>0.030330678025544906</v>
+        <v>0.030596426086255062</v>
       </c>
       <c r="D38">
-        <v>-0.063573002741341728</v>
+        <v>-0.063122096058051719</v>
       </c>
       <c r="E38">
-        <v>0.055322533123398986</v>
+        <v>0.056815169502330232</v>
       </c>
     </row>
     <row r="39">
@@ -887,16 +887,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.040191392051310983</v>
+        <v>-0.039914115330467577</v>
       </c>
       <c r="C39">
-        <v>0.025823881815657326</v>
+        <v>0.02588943232622368</v>
       </c>
       <c r="D39">
-        <v>-0.090805736029035883</v>
+        <v>-0.09065693797628796</v>
       </c>
       <c r="E39">
-        <v>0.010422951926413924</v>
+        <v>0.010828707315352813</v>
       </c>
     </row>
     <row r="40">
@@ -904,16 +904,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.041277237602790298</v>
+        <v>-0.042509928711887648</v>
       </c>
       <c r="C40">
-        <v>0.034416105550370772</v>
+        <v>0.034794023004795734</v>
       </c>
       <c r="D40">
-        <v>-0.10873263719422477</v>
+        <v>-0.11070604748881058</v>
       </c>
       <c r="E40">
-        <v>0.026178161988644172</v>
+        <v>0.02568619006503528</v>
       </c>
     </row>
     <row r="41">
@@ -921,16 +921,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.075270588761676943</v>
+        <v>-0.0741451460537009</v>
       </c>
       <c r="C41">
-        <v>0.027426239191372308</v>
+        <v>0.027504379924780685</v>
       </c>
       <c r="D41">
-        <v>-0.12902564046649928</v>
+        <v>-0.12805335370214044</v>
       </c>
       <c r="E41">
-        <v>-0.021515537056854613</v>
+        <v>-0.020236938405261369</v>
       </c>
     </row>
     <row r="42">
@@ -938,16 +938,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.12389656965506884</v>
+        <v>-0.12238922458291636</v>
       </c>
       <c r="C42">
-        <v>0.045101967578428909</v>
+        <v>0.045269927667412869</v>
       </c>
       <c r="D42">
-        <v>-0.21229969070700239</v>
+        <v>-0.21112156855216546</v>
       </c>
       <c r="E42">
-        <v>-0.035493448603135316</v>
+        <v>-0.03365688061366727</v>
       </c>
     </row>
     <row r="43">
@@ -955,16 +955,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.015108854272156309</v>
+        <v>-0.013035473002570616</v>
       </c>
       <c r="C43">
-        <v>0.048494553012880269</v>
+        <v>0.048625427267812986</v>
       </c>
       <c r="D43">
-        <v>-0.11016110646306057</v>
+        <v>-0.10834425254811766</v>
       </c>
       <c r="E43">
-        <v>0.079943397918747938</v>
+        <v>0.082273306542976432</v>
       </c>
     </row>
     <row r="44">
@@ -972,16 +972,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.0015470619420212314</v>
+        <v>1.8499040303912433e-05</v>
       </c>
       <c r="C44">
-        <v>0.031744505520220234</v>
+        <v>0.032059447476683718</v>
       </c>
       <c r="D44">
-        <v>-0.063765914936488657</v>
+        <v>-0.062817638338785106</v>
       </c>
       <c r="E44">
-        <v>0.060671791052446196</v>
+        <v>0.062854636419392942</v>
       </c>
     </row>
     <row r="45">
@@ -989,16 +989,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>-0.065732605436058508</v>
+        <v>-0.065222705672570561</v>
       </c>
       <c r="C45">
-        <v>0.02826317175850903</v>
+        <v>0.028344254299774836</v>
       </c>
       <c r="D45">
-        <v>-0.12112791383695716</v>
+        <v>-0.12077693532266104</v>
       </c>
       <c r="E45">
-        <v>-0.010337297035159856</v>
+        <v>-0.0096684760224800825</v>
       </c>
     </row>
     <row r="46">
@@ -1006,16 +1006,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.011550661333812244</v>
+        <v>-0.0096469901191150401</v>
       </c>
       <c r="C46">
-        <v>0.038392457107786111</v>
+        <v>0.038831682546412886</v>
       </c>
       <c r="D46">
-        <v>-0.086799690649821556</v>
+        <v>-0.085756902297937698</v>
       </c>
       <c r="E46">
-        <v>0.063698367982197066</v>
+        <v>0.066462922059707608</v>
       </c>
     </row>
     <row r="47">
@@ -1023,16 +1023,16 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.074801584024509649</v>
+        <v>-0.074780112701138463</v>
       </c>
       <c r="C47">
-        <v>0.031416590895038524</v>
+        <v>0.031497125633370877</v>
       </c>
       <c r="D47">
-        <v>-0.13637767020125771</v>
+        <v>-0.13651404720961779</v>
       </c>
       <c r="E47">
-        <v>-0.013225497847761586</v>
+        <v>-0.013046178192659123</v>
       </c>
     </row>
     <row r="48">
@@ -1040,16 +1040,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.2196402582774549</v>
+        <v>-0.21809565936070791</v>
       </c>
       <c r="C48">
-        <v>0.048344957638834583</v>
+        <v>0.048522899695252794</v>
       </c>
       <c r="D48">
-        <v>-0.31439987458387431</v>
+        <v>-0.31320406460880934</v>
       </c>
       <c r="E48">
-        <v>-0.12488064197103547</v>
+        <v>-0.12298725411260646</v>
       </c>
     </row>
     <row r="49">
@@ -1057,16 +1057,16 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.027810172807912356</v>
+        <v>-0.026113148949592407</v>
       </c>
       <c r="C49">
-        <v>0.051777093308922252</v>
+        <v>0.051957659818918402</v>
       </c>
       <c r="D49">
-        <v>-0.12929640219133381</v>
+        <v>-0.12795330591334936</v>
       </c>
       <c r="E49">
-        <v>0.073676056575509102</v>
+        <v>0.075727008014164543</v>
       </c>
     </row>
     <row r="50">
@@ -1074,16 +1074,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.060178963726223812</v>
+        <v>-0.060838239908903559</v>
       </c>
       <c r="C50">
-        <v>0.043147713131426041</v>
+        <v>0.043582749999744895</v>
       </c>
       <c r="D50">
-        <v>-0.14474796791693781</v>
+        <v>-0.14625991376445513</v>
       </c>
       <c r="E50">
-        <v>0.024390040464490191</v>
+        <v>0.024583433946648019</v>
       </c>
     </row>
     <row r="51">
@@ -1091,16 +1091,16 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.081144273380638815</v>
+        <v>-0.080843088689298487</v>
       </c>
       <c r="C51">
-        <v>0.034360058631641863</v>
+        <v>0.034453200959890767</v>
       </c>
       <c r="D51">
-        <v>-0.14848937041489929</v>
+        <v>-0.14837074413803236</v>
       </c>
       <c r="E51">
-        <v>-0.013799176346378353</v>
+        <v>-0.013315433240564598</v>
       </c>
     </row>
     <row r="52">
@@ -1108,16 +1108,16 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.0043485786331142152</v>
+        <v>0.0035066368473006728</v>
       </c>
       <c r="C52">
-        <v>0.055416537261470042</v>
+        <v>0.05611841919309405</v>
       </c>
       <c r="D52">
-        <v>-0.10426756503471016</v>
+        <v>-0.10648519652988316</v>
       </c>
       <c r="E52">
-        <v>0.1129647223009386</v>
+        <v>0.11349847022448449</v>
       </c>
     </row>
     <row r="53">
@@ -1125,16 +1125,16 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.12036658445377836</v>
+        <v>-0.12036785847051561</v>
       </c>
       <c r="C53">
-        <v>0.040711400652516237</v>
+        <v>0.040814424612226827</v>
       </c>
       <c r="D53">
-        <v>-0.20016036995172531</v>
+        <v>-0.2003635712647952</v>
       </c>
       <c r="E53">
-        <v>-0.040572798955831421</v>
+        <v>-0.040372145676236024</v>
       </c>
     </row>
     <row r="54">
@@ -1142,16 +1142,16 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.096887425221036244</v>
+        <v>-0.096598596168214354</v>
       </c>
       <c r="C54">
-        <v>0.065892481300109051</v>
+        <v>0.066266834155424725</v>
       </c>
       <c r="D54">
-        <v>-0.22604145803914771</v>
+        <v>-0.22648640083252358</v>
       </c>
       <c r="E54">
-        <v>0.032266607597075225</v>
+        <v>0.033289208496094888</v>
       </c>
     </row>
     <row r="55">
@@ -1159,16 +1159,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.039895802690546905</v>
+        <v>0.040789600506737404</v>
       </c>
       <c r="C55">
-        <v>0.067049749959421381</v>
+        <v>0.067254083655282348</v>
       </c>
       <c r="D55">
-        <v>-0.091525755948982129</v>
+        <v>-0.091032472692443356</v>
       </c>
       <c r="E55">
-        <v>0.17131736133007594</v>
+        <v>0.17261167370591818</v>
       </c>
     </row>
   </sheetData>

--- a/linreg/rifdid_coefs-sltt_blk1.xlsx
+++ b/linreg/rifdid_coefs-sltt_blk1.xlsx
@@ -258,16 +258,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.024165800849694469</v>
+        <v>-0.024166140465835009</v>
       </c>
       <c r="C2">
-        <v>0.029632870758003003</v>
+        <v>0.028113961550550574</v>
       </c>
       <c r="D2">
-        <v>-0.082245876597752135</v>
+        <v>-0.079269173814557309</v>
       </c>
       <c r="E2">
-        <v>0.033914274898363198</v>
+        <v>0.030936892882887288</v>
       </c>
     </row>
     <row r="3">
@@ -275,16 +275,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.055192335539609672</v>
+        <v>-0.055181831103036753</v>
       </c>
       <c r="C3">
-        <v>0.020704731466418179</v>
+        <v>0.018648370263095789</v>
       </c>
       <c r="D3">
-        <v>-0.095773237565244806</v>
+        <v>-0.091732302474690608</v>
       </c>
       <c r="E3">
-        <v>-0.014611433513974537</v>
+        <v>-0.018631359731382899</v>
       </c>
     </row>
     <row r="4">
@@ -292,16 +292,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.036276293245246095</v>
+        <v>-0.036284606564157322</v>
       </c>
       <c r="C4">
-        <v>0.033252678595952635</v>
+        <v>0.033797935233883913</v>
       </c>
       <c r="D4">
-        <v>-0.10145138434833201</v>
+        <v>-0.10252840091460541</v>
       </c>
       <c r="E4">
-        <v>0.02889879785783981</v>
+        <v>0.029959187786290774</v>
       </c>
     </row>
     <row r="5">
@@ -309,16 +309,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>-0.058458558994010791</v>
+        <v>-0.058452591592142375</v>
       </c>
       <c r="C5">
-        <v>0.021382202993288333</v>
+        <v>0.022357307828168478</v>
       </c>
       <c r="D5">
-        <v>-0.10036738377375953</v>
+        <v>-0.10227260914933772</v>
       </c>
       <c r="E5">
-        <v>-0.016549734214262049</v>
+        <v>-0.01463257403494702</v>
       </c>
     </row>
     <row r="6">
@@ -326,16 +326,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.16496113917138841</v>
+        <v>-0.16500529013370988</v>
       </c>
       <c r="C6">
-        <v>0.078389946216647549</v>
+        <v>0.077922926397031175</v>
       </c>
       <c r="D6">
-        <v>-0.31861112338449593</v>
+        <v>-0.31773989285240317</v>
       </c>
       <c r="E6">
-        <v>-0.011311154958280889</v>
+        <v>-0.012270687415016579</v>
       </c>
     </row>
     <row r="7">
@@ -343,16 +343,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.091203368375932736</v>
+        <v>-0.091196460510440155</v>
       </c>
       <c r="C7">
-        <v>0.076448965830950982</v>
+        <v>0.083541725275067286</v>
       </c>
       <c r="D7">
-        <v>-0.24104796697939254</v>
+        <v>-0.25494329907179519</v>
       </c>
       <c r="E7">
-        <v>0.058641230227527069</v>
+        <v>0.072550378050914868</v>
       </c>
     </row>
     <row r="8">
@@ -360,16 +360,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.091973042816274705</v>
+        <v>-0.091935351397948062</v>
       </c>
       <c r="C8">
-        <v>0.028444917217125717</v>
+        <v>0.030762047325026898</v>
       </c>
       <c r="D8">
-        <v>-0.14772474369296787</v>
+        <v>-0.15222860166003127</v>
       </c>
       <c r="E8">
-        <v>-0.036221341939581542</v>
+        <v>-0.031642101135864853</v>
       </c>
     </row>
     <row r="9">
@@ -377,16 +377,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.067377257269346597</v>
+        <v>-0.067358595908313154</v>
       </c>
       <c r="C9">
-        <v>0.020838871778463799</v>
+        <v>0.023097571922626389</v>
       </c>
       <c r="D9">
-        <v>-0.10822107189878152</v>
+        <v>-0.1126294227635347</v>
       </c>
       <c r="E9">
-        <v>-0.02653344263991167</v>
+        <v>-0.022087769053091608</v>
       </c>
     </row>
     <row r="10">
@@ -394,16 +394,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.068309421461311415</v>
+        <v>-0.068268189828735282</v>
       </c>
       <c r="C10">
-        <v>0.031068198867234761</v>
+        <v>0.030915524094013092</v>
       </c>
       <c r="D10">
-        <v>-0.12920294273773797</v>
+        <v>-0.12886247188023039</v>
       </c>
       <c r="E10">
-        <v>-0.0074159001848848535</v>
+        <v>-0.0076739077772401687</v>
       </c>
     </row>
     <row r="11">
@@ -411,16 +411,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.047428053708008545</v>
+        <v>-0.047445227704639457</v>
       </c>
       <c r="C11">
-        <v>0.021246081758022659</v>
+        <v>0.020880982780650158</v>
       </c>
       <c r="D11">
-        <v>-0.089070082732458228</v>
+        <v>-0.088371668360734387</v>
       </c>
       <c r="E11">
-        <v>-0.0057860246835588561</v>
+        <v>-0.0065187870485445276</v>
       </c>
     </row>
     <row r="12">
@@ -428,16 +428,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.048294304287049818</v>
+        <v>-0.048241053036511682</v>
       </c>
       <c r="C12">
-        <v>0.063586904552479603</v>
+        <v>0.069550140967599233</v>
       </c>
       <c r="D12">
-        <v>-0.17292925241734972</v>
+        <v>-0.18456438739886316</v>
       </c>
       <c r="E12">
-        <v>0.076340643843250067</v>
+        <v>0.088082281325839784</v>
       </c>
     </row>
     <row r="13">
@@ -445,16 +445,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.065555014597344655</v>
+        <v>-0.065559608273461509</v>
       </c>
       <c r="C13">
-        <v>0.065442602229183577</v>
+        <v>0.065128809607767277</v>
       </c>
       <c r="D13">
-        <v>-0.1938264745969745</v>
+        <v>-0.19321601753987533</v>
       </c>
       <c r="E13">
-        <v>0.062716445402285173</v>
+        <v>0.062096800992952297</v>
       </c>
     </row>
     <row r="14">
@@ -462,16 +462,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.090683991416131385</v>
+        <v>-0.090418762784684234</v>
       </c>
       <c r="C14">
-        <v>0.0285070110902177</v>
+        <v>0.026430590720041034</v>
       </c>
       <c r="D14">
-        <v>-0.14655739554871644</v>
+        <v>-0.14222240914217629</v>
       </c>
       <c r="E14">
-        <v>-0.034810587283546322</v>
+        <v>-0.038615116427192168</v>
       </c>
     </row>
     <row r="15">
@@ -479,16 +479,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.08583652680776159</v>
+        <v>-0.085830021606105533</v>
       </c>
       <c r="C15">
-        <v>0.021958608473189842</v>
+        <v>0.021438927481730565</v>
       </c>
       <c r="D15">
-        <v>-0.12887500525966081</v>
+        <v>-0.12784993509477471</v>
       </c>
       <c r="E15">
-        <v>-0.042798048355862373</v>
+        <v>-0.043810108117436346</v>
       </c>
     </row>
     <row r="16">
@@ -496,16 +496,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.076665925150305986</v>
+        <v>-0.076606682476943286</v>
       </c>
       <c r="C16">
-        <v>0.030668336120525771</v>
+        <v>0.035197824354045171</v>
       </c>
       <c r="D16">
-        <v>-0.1367757173544929</v>
+        <v>-0.14559425292932385</v>
       </c>
       <c r="E16">
-        <v>-0.016556132946119059</v>
+        <v>-0.0076191120245627242</v>
       </c>
     </row>
     <row r="17">
@@ -513,16 +513,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>-0.091535173026559197</v>
+        <v>-0.091519529243567752</v>
       </c>
       <c r="C17">
-        <v>0.022202435298481038</v>
+        <v>0.021988850096528078</v>
       </c>
       <c r="D17">
-        <v>-0.13505164188151386</v>
+        <v>-0.13461737468622864</v>
       </c>
       <c r="E17">
-        <v>-0.048018704171604525</v>
+        <v>-0.048421683800906876</v>
       </c>
     </row>
     <row r="18">
@@ -530,16 +530,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.054813609516926508</v>
+        <v>-0.054582204079242289</v>
       </c>
       <c r="C18">
-        <v>0.059400022337002825</v>
+        <v>0.065214203243786031</v>
       </c>
       <c r="D18">
-        <v>-0.17124196461637767</v>
+        <v>-0.18240678516986297</v>
       </c>
       <c r="E18">
-        <v>0.061614745582524645</v>
+        <v>0.07324237701137841</v>
       </c>
     </row>
     <row r="19">
@@ -547,16 +547,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.074180197219998592</v>
+        <v>-0.074148744668780256</v>
       </c>
       <c r="C19">
-        <v>0.057165740935859223</v>
+        <v>0.052170263493979602</v>
       </c>
       <c r="D19">
-        <v>-0.18622850828995935</v>
+        <v>-0.17640561913389946</v>
       </c>
       <c r="E19">
-        <v>0.037868113849962151</v>
+        <v>0.028108129796338949</v>
       </c>
     </row>
     <row r="20">
@@ -564,16 +564,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.056534260254491875</v>
+        <v>-0.056494154079221641</v>
       </c>
       <c r="C20">
-        <v>0.027038488088423109</v>
+        <v>0.025345225757008861</v>
       </c>
       <c r="D20">
-        <v>-0.10952937669505641</v>
+        <v>-0.1061704978989351</v>
       </c>
       <c r="E20">
-        <v>-0.0035391438139273368</v>
+        <v>-0.0068178102595081932</v>
       </c>
     </row>
     <row r="21">
@@ -581,16 +581,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.063977360105818462</v>
+        <v>-0.063963121872785494</v>
       </c>
       <c r="C21">
-        <v>0.023191842396023128</v>
+        <v>0.022855721626186692</v>
       </c>
       <c r="D21">
-        <v>-0.10943295491000452</v>
+        <v>-0.10875992648308527</v>
       </c>
       <c r="E21">
-        <v>-0.018521765301632402</v>
+        <v>-0.019166317262485723</v>
       </c>
     </row>
     <row r="22">
@@ -598,16 +598,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.076934699089306155</v>
+        <v>-0.076902034852655385</v>
       </c>
       <c r="C22">
-        <v>0.030433326071131788</v>
+        <v>0.030989975147923617</v>
       </c>
       <c r="D22">
-        <v>-0.13658387272000896</v>
+        <v>-0.13764224062020872</v>
       </c>
       <c r="E22">
-        <v>-0.017285525458603346</v>
+        <v>-0.01616182908510206</v>
       </c>
     </row>
     <row r="23">
@@ -615,16 +615,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.089190441910527413</v>
+        <v>-0.09003152329781508</v>
       </c>
       <c r="C23">
-        <v>0.023814871762615489</v>
+        <v>0.025037535155212381</v>
       </c>
       <c r="D23">
-        <v>-0.13586726413342548</v>
+        <v>-0.13910474975793405</v>
       </c>
       <c r="E23">
-        <v>-0.042513619687629331</v>
+        <v>-0.040958296837696105</v>
       </c>
     </row>
     <row r="24">
@@ -632,16 +632,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.084571481682084101</v>
+        <v>-0.084479695707142116</v>
       </c>
       <c r="C24">
-        <v>0.053996312116468652</v>
+        <v>0.057092958198765024</v>
       </c>
       <c r="D24">
-        <v>-0.19040817254205963</v>
+        <v>-0.19638604588825609</v>
       </c>
       <c r="E24">
-        <v>0.021265209177891431</v>
+        <v>0.027426654473971843</v>
       </c>
     </row>
     <row r="25">
@@ -649,16 +649,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0075002915056783873</v>
+        <v>-0.0074946105297094131</v>
       </c>
       <c r="C25">
-        <v>0.051631828051538264</v>
+        <v>0.055440832646043381</v>
       </c>
       <c r="D25">
-        <v>-0.10870179849079081</v>
+        <v>-0.11616199850988247</v>
       </c>
       <c r="E25">
-        <v>0.093701215479434052</v>
+        <v>0.10117277745046364</v>
       </c>
     </row>
     <row r="26">
@@ -666,16 +666,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.033422251396713842</v>
+        <v>-0.033393313471913932</v>
       </c>
       <c r="C26">
-        <v>0.028499914542807574</v>
+        <v>0.030261433495671501</v>
       </c>
       <c r="D26">
-        <v>-0.0892817463804184</v>
+        <v>-0.092705366527612632</v>
       </c>
       <c r="E26">
-        <v>0.022437243586990716</v>
+        <v>0.02591873958378476</v>
       </c>
     </row>
     <row r="27">
@@ -683,16 +683,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>-0.08043707111681013</v>
+        <v>-0.080148514271386029</v>
       </c>
       <c r="C27">
-        <v>0.0221918194548834</v>
+        <v>0.021310138515043882</v>
       </c>
       <c r="D27">
-        <v>-0.12393263890670721</v>
+        <v>-0.12191600369438862</v>
       </c>
       <c r="E27">
-        <v>-0.036941503326913053</v>
+        <v>-0.038381024848383426</v>
       </c>
     </row>
     <row r="28">
@@ -700,16 +700,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.066214931291278228</v>
+        <v>-0.066241074821756563</v>
       </c>
       <c r="C28">
-        <v>0.030226887695567226</v>
+        <v>0.031636135876366982</v>
       </c>
       <c r="D28">
-        <v>-0.1254594866926324</v>
+        <v>-0.12824775258282459</v>
       </c>
       <c r="E28">
-        <v>-0.0069703758899240451</v>
+        <v>-0.0042343970606885314</v>
       </c>
     </row>
     <row r="29">
@@ -717,16 +717,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.051427667624333727</v>
+        <v>-0.051391113130641021</v>
       </c>
       <c r="C29">
-        <v>0.023930970726704831</v>
+        <v>0.024991057587349153</v>
       </c>
       <c r="D29">
-        <v>-0.098332042225471677</v>
+        <v>-0.10037324419343241</v>
       </c>
       <c r="E29">
-        <v>-0.0045232930231957694</v>
+        <v>-0.0024089820678496396</v>
       </c>
     </row>
     <row r="30">
@@ -734,16 +734,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.031646205014856058</v>
+        <v>-0.031667060526725931</v>
       </c>
       <c r="C30">
-        <v>0.050445132081166265</v>
+        <v>0.042201270167320976</v>
       </c>
       <c r="D30">
-        <v>-0.13052232525708779</v>
+        <v>-0.11438461916137682</v>
       </c>
       <c r="E30">
-        <v>0.067229915227375661</v>
+        <v>0.051050498107924967</v>
       </c>
     </row>
     <row r="31">
@@ -751,16 +751,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0089069466228220307</v>
+        <v>0.0089077851892962294</v>
       </c>
       <c r="C31">
-        <v>0.048220754392650944</v>
+        <v>0.048914563461429736</v>
       </c>
       <c r="D31">
-        <v>-0.085608649602515671</v>
+        <v>-0.08696772013508719</v>
       </c>
       <c r="E31">
-        <v>0.10342254284815973</v>
+        <v>0.10478329051367966</v>
       </c>
     </row>
     <row r="32">
@@ -768,16 +768,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.011140014002463011</v>
+        <v>-0.01109517491466747</v>
       </c>
       <c r="C32">
-        <v>0.029257755290679532</v>
+        <v>0.030845134577347902</v>
       </c>
       <c r="D32">
-        <v>-0.068484867877002698</v>
+        <v>-0.071551275212213161</v>
       </c>
       <c r="E32">
-        <v>0.046204839872076672</v>
+        <v>0.049360925382878215</v>
       </c>
     </row>
     <row r="33">
@@ -785,16 +785,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.068275345005504223</v>
+        <v>-0.06573425887274513</v>
       </c>
       <c r="C33">
-        <v>0.023835620312528165</v>
+        <v>0.022894782335718646</v>
       </c>
       <c r="D33">
-        <v>-0.11499273297026963</v>
+        <v>-0.11060762177341354</v>
       </c>
       <c r="E33">
-        <v>-0.021557957040738818</v>
+        <v>-0.020860895972076708</v>
       </c>
     </row>
     <row r="34">
@@ -802,16 +802,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.026981971857268739</v>
+        <v>-0.026938170760072652</v>
       </c>
       <c r="C34">
-        <v>0.031538377736644585</v>
+        <v>0.030472520558056118</v>
       </c>
       <c r="D34">
-        <v>-0.088797041470323468</v>
+        <v>-0.086664167961343117</v>
       </c>
       <c r="E34">
-        <v>0.034833097755785983</v>
+        <v>0.03278782644119782</v>
       </c>
     </row>
     <row r="35">
@@ -819,16 +819,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.091429183760733293</v>
+        <v>-0.091459032832886478</v>
       </c>
       <c r="C35">
-        <v>0.024977461195939955</v>
+        <v>0.027344536422461006</v>
       </c>
       <c r="D35">
-        <v>-0.14038466533726654</v>
+        <v>-0.14505395022342854</v>
       </c>
       <c r="E35">
-        <v>-0.042473702184200046</v>
+        <v>-0.037864115442344401</v>
       </c>
     </row>
     <row r="36">
@@ -836,16 +836,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.044562667267545826</v>
+        <v>-0.0444606225452591</v>
       </c>
       <c r="C36">
-        <v>0.047727491182842793</v>
+        <v>0.046305461116525448</v>
       </c>
       <c r="D36">
-        <v>-0.13811201409969937</v>
+        <v>-0.13522269391951733</v>
       </c>
       <c r="E36">
-        <v>0.048986679564607706</v>
+        <v>0.046301448828999135</v>
       </c>
     </row>
     <row r="37">
@@ -853,16 +853,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>-0.06044951387661094</v>
+        <v>-0.060454963080329459</v>
       </c>
       <c r="C37">
-        <v>0.044486897628408878</v>
+        <v>0.041688415827932181</v>
       </c>
       <c r="D37">
-        <v>-0.14764652492555966</v>
+        <v>-0.14216678162344429</v>
       </c>
       <c r="E37">
-        <v>0.026747497172337785</v>
+        <v>0.021256855462785378</v>
       </c>
     </row>
     <row r="38">
@@ -870,16 +870,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0031534632778607405</v>
+        <v>-0.0031838329449517546</v>
       </c>
       <c r="C38">
-        <v>0.030596426086255062</v>
+        <v>0.028484624903416085</v>
       </c>
       <c r="D38">
-        <v>-0.063122096058051719</v>
+        <v>-0.059013362097453705</v>
       </c>
       <c r="E38">
-        <v>0.056815169502330232</v>
+        <v>0.052645696207550198</v>
       </c>
     </row>
     <row r="39">
@@ -887,16 +887,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.039914115330467577</v>
+        <v>-0.039906331028275781</v>
       </c>
       <c r="C39">
-        <v>0.02588943232622368</v>
+        <v>0.026155540925570247</v>
       </c>
       <c r="D39">
-        <v>-0.09065693797628796</v>
+        <v>-0.091170722303370103</v>
       </c>
       <c r="E39">
-        <v>0.010828707315352813</v>
+        <v>0.011358060246818541</v>
       </c>
     </row>
     <row r="40">
@@ -904,16 +904,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.042509928711887648</v>
+        <v>-0.042458771893095472</v>
       </c>
       <c r="C40">
-        <v>0.034794023004795734</v>
+        <v>0.036840130664480178</v>
       </c>
       <c r="D40">
-        <v>-0.11070604748881058</v>
+        <v>-0.11466525500200514</v>
       </c>
       <c r="E40">
-        <v>0.02568619006503528</v>
+        <v>0.029747711215814189</v>
       </c>
     </row>
     <row r="41">
@@ -921,16 +921,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0741451460537009</v>
+        <v>-0.074145767893833966</v>
       </c>
       <c r="C41">
-        <v>0.027504379924780685</v>
+        <v>0.031778423784631145</v>
       </c>
       <c r="D41">
-        <v>-0.12805335370214044</v>
+        <v>-0.13643104387093752</v>
       </c>
       <c r="E41">
-        <v>-0.020236938405261369</v>
+        <v>-0.011860491916730415</v>
       </c>
     </row>
     <row r="42">
@@ -938,16 +938,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.12238922458291636</v>
+        <v>-0.1222383702061544</v>
       </c>
       <c r="C42">
-        <v>0.045269927667412869</v>
+        <v>0.038990697280843763</v>
       </c>
       <c r="D42">
-        <v>-0.21112156855216546</v>
+        <v>-0.1986629724929263</v>
       </c>
       <c r="E42">
-        <v>-0.03365688061366727</v>
+        <v>-0.045813767919382492</v>
       </c>
     </row>
     <row r="43">
@@ -955,16 +955,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.013035473002570616</v>
+        <v>-0.013034892039827019</v>
       </c>
       <c r="C43">
-        <v>0.048625427267812986</v>
+        <v>0.044961169489526082</v>
       </c>
       <c r="D43">
-        <v>-0.10834425254811766</v>
+        <v>-0.10116150586890943</v>
       </c>
       <c r="E43">
-        <v>0.082273306542976432</v>
+        <v>0.075091721789255383</v>
       </c>
     </row>
     <row r="44">
@@ -972,16 +972,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>1.8499040303912433e-05</v>
+        <v>7.6107635260761524e-05</v>
       </c>
       <c r="C44">
-        <v>0.032059447476683718</v>
+        <v>0.035965042230396767</v>
       </c>
       <c r="D44">
-        <v>-0.062817638338785106</v>
+        <v>-0.07041495133010045</v>
       </c>
       <c r="E44">
-        <v>0.062854636419392942</v>
+        <v>0.070567166600621983</v>
       </c>
     </row>
     <row r="45">
@@ -989,16 +989,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>-0.065222705672570561</v>
+        <v>-0.065241118925153455</v>
       </c>
       <c r="C45">
-        <v>0.028344254299774836</v>
+        <v>0.027624462402308331</v>
       </c>
       <c r="D45">
-        <v>-0.12077693532266104</v>
+        <v>-0.11938456995856736</v>
       </c>
       <c r="E45">
-        <v>-0.0096684760224800825</v>
+        <v>-0.011097667891739542</v>
       </c>
     </row>
     <row r="46">
@@ -1006,16 +1006,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0096469901191150401</v>
+        <v>-0.0096562042798023842</v>
       </c>
       <c r="C46">
-        <v>0.038831682546412886</v>
+        <v>0.038657440026109401</v>
       </c>
       <c r="D46">
-        <v>-0.085756902297937698</v>
+        <v>-0.08542460520380446</v>
       </c>
       <c r="E46">
-        <v>0.066462922059707608</v>
+        <v>0.066112196644199678</v>
       </c>
     </row>
     <row r="47">
@@ -1023,16 +1023,16 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.074780112701138463</v>
+        <v>-0.074803561153062359</v>
       </c>
       <c r="C47">
-        <v>0.031497125633370877</v>
+        <v>0.030208396366586027</v>
       </c>
       <c r="D47">
-        <v>-0.13651404720961779</v>
+        <v>-0.13401160486442171</v>
       </c>
       <c r="E47">
-        <v>-0.013046178192659123</v>
+        <v>-0.015595517441702997</v>
       </c>
     </row>
     <row r="48">
@@ -1040,16 +1040,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.21809565936070791</v>
+        <v>-0.2176558493150007</v>
       </c>
       <c r="C48">
-        <v>0.048522899695252794</v>
+        <v>0.049961419375243198</v>
       </c>
       <c r="D48">
-        <v>-0.31320406460880934</v>
+        <v>-0.3155838647575846</v>
       </c>
       <c r="E48">
-        <v>-0.12298725411260646</v>
+        <v>-0.11972783387241683</v>
       </c>
     </row>
     <row r="49">
@@ -1057,16 +1057,16 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.026113148949592407</v>
+        <v>-0.026113855041104767</v>
       </c>
       <c r="C49">
-        <v>0.051957659818918402</v>
+        <v>0.054385118238539254</v>
       </c>
       <c r="D49">
-        <v>-0.12795330591334936</v>
+        <v>-0.13271197887712366</v>
       </c>
       <c r="E49">
-        <v>0.075727008014164543</v>
+        <v>0.080484268794914132</v>
       </c>
     </row>
     <row r="50">
@@ -1074,16 +1074,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.060838239908903559</v>
+        <v>-0.060820636204932041</v>
       </c>
       <c r="C50">
-        <v>0.043582749999744895</v>
+        <v>0.041544280060603012</v>
       </c>
       <c r="D50">
-        <v>-0.14625991376445513</v>
+        <v>-0.14224693557266505</v>
       </c>
       <c r="E50">
-        <v>0.024583433946648019</v>
+        <v>0.020605663162800977</v>
       </c>
     </row>
     <row r="51">
@@ -1091,16 +1091,16 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.080843088689298487</v>
+        <v>-0.080862364669894687</v>
       </c>
       <c r="C51">
-        <v>0.034453200959890767</v>
+        <v>0.037395867423835855</v>
       </c>
       <c r="D51">
-        <v>-0.14837074413803236</v>
+        <v>-0.15415759435535292</v>
       </c>
       <c r="E51">
-        <v>-0.013315433240564598</v>
+        <v>-0.0075671349844364383</v>
       </c>
     </row>
     <row r="52">
@@ -1108,16 +1108,16 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.0035066368473006728</v>
+        <v>0.0037547668028495526</v>
       </c>
       <c r="C52">
-        <v>0.05611841919309405</v>
+        <v>0.058984707574665556</v>
       </c>
       <c r="D52">
-        <v>-0.10648519652988316</v>
+        <v>-0.11185498306376809</v>
       </c>
       <c r="E52">
-        <v>0.11349847022448449</v>
+        <v>0.11936451666946721</v>
       </c>
     </row>
     <row r="53">
@@ -1125,16 +1125,16 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.12036785847051561</v>
+        <v>-0.12040337143116844</v>
       </c>
       <c r="C53">
-        <v>0.040814424612226827</v>
+        <v>0.041324012088176473</v>
       </c>
       <c r="D53">
-        <v>-0.2003635712647952</v>
+        <v>-0.20139786992602543</v>
       </c>
       <c r="E53">
-        <v>-0.040372145676236024</v>
+        <v>-0.039408872936311456</v>
       </c>
     </row>
     <row r="54">
@@ -1142,16 +1142,16 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.096598596168214354</v>
+        <v>-0.09621075419213021</v>
       </c>
       <c r="C54">
-        <v>0.066266834155424725</v>
+        <v>0.06933949645387133</v>
       </c>
       <c r="D54">
-        <v>-0.22648640083252358</v>
+        <v>-0.23212120998835625</v>
       </c>
       <c r="E54">
-        <v>0.033289208496094888</v>
+        <v>0.039699701604095833</v>
       </c>
     </row>
     <row r="55">
@@ -1159,16 +1159,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.040789600506737404</v>
+        <v>0.040782263691364777</v>
       </c>
       <c r="C55">
-        <v>0.067254083655282348</v>
+        <v>0.073856337348246412</v>
       </c>
       <c r="D55">
-        <v>-0.091032472692443356</v>
+        <v>-0.10398062824888119</v>
       </c>
       <c r="E55">
-        <v>0.17261167370591818</v>
+        <v>0.18554515563161075</v>
       </c>
     </row>
   </sheetData>
